--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_0_branch_isolated.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_0_branch_isolated.xlsx
@@ -991,40 +991,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.042129368337673E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.605319086867241E-14</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.04213387394993E-14</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-2.084258736675258E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-1.302614552294603E-14</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>4.733019434945075E-19</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-5.210646841687631E-15</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>5.763374019309585E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-5.763397471383332E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-5.210646841689396E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-5.763387045440786E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>5.763387050575543E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1045,40 +1045,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.5500000117057789</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.5500000121030503</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.5500000116594096</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.5500000121494194</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>3.230064669423452E-12</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.999999999562</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>179.9999999995448</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>3.235878885818676E-12</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999953046</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999952875</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1122,40 +1122,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.042129368337703E-14</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-5.210442063358339E-15</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.084279272508777E-14</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-3.126388105012931E-14</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.823710674596206E-14</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-3.126403883137344E-14</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-1.042129368337585E-14</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.921142041710038E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.921118595618812E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1.765682105010281E-27</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.92112901514693E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.921129016858512E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.5500000116439532</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.5500000121648758</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.5500000116594096</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.5500000121494194</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>3.239489879446785E-12</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999938855</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999938684</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>3.235878885818676E-12</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999953046</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999952875</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1253,40 +1253,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-5.210646841687925E-15</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-5.21044206485695E-15</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.042149903716305E-14</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1.042129368337644E-14</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>7.81581306722702E-15</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-1.042145145618997E-14</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-5.210646841688514E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.921131620416361E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.921118595618814E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-5.885607016700939E-28</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.921129015146929E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.921139438152201E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1307,40 +1307,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.5500000116439533</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.5500000121648758</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.5500000116594096</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.5500000121494194</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>3.239347647951141E-12</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999938855</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999938684</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>3.235878885818676E-12</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999953046</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999952875</v>
       </c>
     </row>
   </sheetData>
@@ -1528,40 +1528,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.04212936834071E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.307537802998841E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-2.039325432766456E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1.042129368340701E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.307631333605944E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.039312874717814E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.042129368340678E-14</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>5.822501607158045E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.556055749907481E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-5.210646841703316E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-5.822499083861444E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.55606079617276E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1582,40 +1582,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.6816683458636406</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.4761907155780832</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.681668345830025</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.4761907156278299</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-8.517127010600321E-13</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422584267</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>158.1097491654844</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-8.425560873935545E-13</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-164.903442255228</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>158.1097491642603</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1659,40 +1659,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.21064684170347E-15</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.435868362005714E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.79769014797655E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.563194052511033E-14</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.435774833967642E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-6.797732008780962E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-7.6452212876852E-29</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.940842182481777E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.185360862223214E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>5.210646841703699E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.94084470548689E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.185359180207659E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1713,40 +1713,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.6816683458188197</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.4761907156444121</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.681668345830025</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.4761907156278299</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-8.406612970237542E-13</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422541618</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>158.1097491638522</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-8.425560873935545E-13</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-164.903442255228</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>158.1097491642603</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,37 +1793,37 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.435834722423339E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.797656508394178E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-5.210646841703316E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.435616490762687E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-6.79769836919859E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.940829712119519E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.185352489998105E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.042129368340701E-14</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.940835599082869E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.18535080798255E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1844,40 +1844,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.68166834581882</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.4761907156444122</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.681668345830025</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.4761907156278299</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-8.387770588788372E-13</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422541618</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>158.1097491638522</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-8.425560873935545E-13</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-164.903442255228</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>158.1097491642603</v>
       </c>
     </row>
   </sheetData>
@@ -2065,40 +2065,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.04212936834071E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.307537802998841E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-2.039325432766456E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1.042129368340701E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.307631333605944E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.039312874717814E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.042129368340678E-14</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>5.822501607158045E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.556055749907481E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-5.210646841703316E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-5.822499083861444E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.55606079617276E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2119,40 +2119,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.6816683458636406</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.4761907155780832</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.681668345830025</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.4761907156278299</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-8.517127010600321E-13</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422584267</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>158.1097491654844</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-8.425560873935545E-13</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-164.903442255228</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>158.1097491642603</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2196,40 +2196,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.21064684170347E-15</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.435868362005714E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.79769014797655E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.563194052511033E-14</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.435774833967642E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-6.797732008780962E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-7.6452212876852E-29</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.940842182481777E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.185360862223214E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>5.210646841703699E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.94084470548689E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.185359180207659E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2250,40 +2250,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.6816683458188197</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.4761907156444121</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.681668345830025</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.4761907156278299</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-8.406612970237542E-13</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422541618</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>158.1097491638522</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-8.425560873935545E-13</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-164.903442255228</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>158.1097491642603</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,37 +2330,37 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.435834722423339E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.797656508394178E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-5.210646841703316E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.435616490762687E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-6.79769836919859E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.940829712119519E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.185352489998105E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.042129368340701E-14</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.940835599082869E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.18535080798255E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2381,40 +2381,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.68166834581882</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.4761907156444122</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>1.100000023811953</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.681668345830025</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.4761907156278299</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-8.387770588788372E-13</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422541618</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>158.1097491638522</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-8.425560873935545E-13</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-164.903442255228</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>158.1097491642603</v>
       </c>
     </row>
   </sheetData>
@@ -2602,40 +2602,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-3.55271367880199E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.184339551291006E-15</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-7.105530894912921E-15</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.079018521628426E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>8.290446429775847E-15</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.421163778570685E-14</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-4.736951571738921E-15</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.763113753520339E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-4.76309954615633E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.5098369012596E-27</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.763106647691419E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>4.763104283509464E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2656,40 +2656,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.4999999998168899</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.5000000001833215</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747363</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.500000000225475</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>4.64892456489286E-12</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999987699</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>179.9999999987473</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>4.670418859069015E-12</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999905958</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999905732</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2733,40 +2733,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-4.736951571736424E-15</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-1.18390199758916E-15</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.368812313258844E-15</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-2.368475785867634E-15</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>8.289404851956497E-15</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>4.73669055146629E-15</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>4.736951571735654E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.587688794489741E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.587712480768113E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-4.736951571736233E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.587705373864855E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.587707743771921E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2787,40 +2787,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.499999999760685</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002395262</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747363</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.500000000225475</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>4.661109580503011E-12</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999878711</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999878485</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>4.670418859069015E-12</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999905958</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999905732</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,37 +2867,37 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3.553049577296401E-15</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.368812311848673E-15</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-7.105427357604059E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3.552453280802835E-15</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.610224038393758E-19</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.587707742296019E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.587712480768113E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-5.791931310599076E-28</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.587714847767993E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.587707743771921E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2918,40 +2918,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997606852</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002395263</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747363</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.500000000225475</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>4.646098149685619E-12</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.999999987871</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999878485</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>4.670418859069015E-12</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999905958</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999905732</v>
       </c>
     </row>
   </sheetData>
@@ -3139,40 +3139,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-3.55271367880199E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.184339551291006E-15</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-7.105530894912921E-15</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.079018521628426E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>8.290446429775847E-15</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.421163778570685E-14</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-4.736951571738921E-15</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.763113753520339E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-4.76309954615633E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.5098369012596E-27</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.763106647691419E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>4.763104283509464E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3193,40 +3193,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.4999999998168899</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.5000000001833215</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747363</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.500000000225475</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>4.64892456489286E-12</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999987699</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>179.9999999987473</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>4.670418859069015E-12</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999905958</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999905732</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3270,40 +3270,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-4.736951571736424E-15</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-1.18390199758916E-15</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.368812313258844E-15</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-2.368475785867634E-15</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>8.289404851956497E-15</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>4.73669055146629E-15</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>4.736951571735654E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.587688794489741E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.587712480768113E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-4.736951571736233E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.587705373864855E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.587707743771921E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3324,40 +3324,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.499999999760685</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002395262</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747363</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.500000000225475</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>4.661109580503011E-12</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999878711</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999878485</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>4.670418859069015E-12</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999905958</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999905732</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,37 +3404,37 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3.553049577296401E-15</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.368812311848673E-15</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-7.105427357604059E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3.552453280802835E-15</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.610224038393758E-19</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.587707742296019E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.587712480768113E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-5.791931310599076E-28</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.587714847767993E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.587707743771921E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3455,40 +3455,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997606852</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002395263</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1.00000000000043</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747363</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.500000000225475</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>4.646098149685619E-12</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.999999987871</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999878485</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>4.670418859069015E-12</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999905958</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999905732</v>
       </c>
     </row>
   </sheetData>
@@ -3676,40 +3676,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.368475785880804E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-5.559564815348271E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.551457108987597E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.368475785880794E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>5.559551517649233E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.551462353447485E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-1.097580494463923E-27</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.833136530920527E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.108881396999936E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.368475785881912E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.833125000851992E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.108883912428864E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3730,40 +3730,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903891048</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104140458</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607674</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104724997</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.655156129674154E-12</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793302476</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>160.6235536346749</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2.677772371364818E-12</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>160.6235536296839</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3807,40 +3807,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-2.205569470920311E-28</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.853151206097415E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.171581398914502E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-2.368475785880694E-15</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-1.853164508060705E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.171542602753519E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>4.73695157176161E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.611042462829292E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.036301941827591E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-2.368475785880915E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.611053992645829E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.036303306213451E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3861,40 +3861,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903513217</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104919846</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607674</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104724997</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.667745705063972E-12</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793222551</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>160.6235536280203</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>2.677772371364818E-12</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>160.6235536296839</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3938,40 +3938,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.368475785880805E-15</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.853262409549858E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.171515314939345E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-4.73695157176161E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-1.853234095637792E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.171528958579918E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.099480545288144E-28</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.611051604883949E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.036295547119361E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-2.21385905753506E-28</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.611058222568817E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.036299426650656E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3992,40 +3992,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903513218</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104919844</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607674</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104724997</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.659752541161119E-12</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793222551</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>160.6235536280203</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>2.677772371364818E-12</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>160.6235536296839</v>
       </c>
     </row>
   </sheetData>
@@ -4213,40 +4213,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.368475785880804E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-5.559564815348271E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.551457108987597E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.368475785880794E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>5.559551517649233E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.551462353447485E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-1.097580494463923E-27</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.833136530920527E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.108881396999936E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.368475785881912E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.833125000851992E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.108883912428864E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4267,40 +4267,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903891048</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104140458</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607674</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104724997</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.655156129674154E-12</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793302476</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>160.6235536346749</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2.677772371364818E-12</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>160.6235536296839</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4344,40 +4344,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-2.205569470920311E-28</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.853151206097415E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.171581398914502E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-2.368475785880694E-15</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-1.853164508060705E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.171542602753519E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>4.73695157176161E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.611042462829292E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.036301941827591E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-2.368475785880915E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.611053992645829E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.036303306213451E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4398,40 +4398,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903513217</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104919846</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607674</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104724997</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.667745705063972E-12</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793222551</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>160.6235536280203</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>2.677772371364818E-12</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>160.6235536296839</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4475,40 +4475,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.368475785880805E-15</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.853262409549858E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.171515314939345E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-4.73695157176161E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-1.853234095637792E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.171528958579918E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.099480545288144E-28</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.611051604883949E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.036295547119361E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-2.21385905753506E-28</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.611058222568817E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.036299426650656E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4529,40 +4529,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903513218</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104919844</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1.000000000005828</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607674</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104724997</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.659752541161119E-12</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793222551</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>160.6235536280203</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>2.677772371364818E-12</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>160.6235536296839</v>
       </c>
     </row>
   </sheetData>
@@ -4750,40 +4750,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.957777218496262E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.394863288139825E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-7.394428934075304E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.957772876544337E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.394906243196779E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>7.394474060235098E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>3.472907240483153E-15</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-3.842264831800261E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3.842257981546222E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.145256943670649E-18</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3.842262835292974E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-3.842257113033096E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4804,40 +4804,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.3666666746541032</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.9701088351760908</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.9701088350717534</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.3666666746855632</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.9701088351965897</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.9701088350572</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.660736379174379E-08</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946492861</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>100.8933946504732</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2.218506696397917E-08</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946499992</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>100.8933946515847</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4881,40 +4881,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.859251606507815E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.464797085990904E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.464899896024443E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-9.859225552991647E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.464745447086499E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.464764519377899E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>3.474178307907359E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.280770451203405E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-1.280750923601133E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-3.817516420317854E-19</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-1.280767935222145E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1.280753528932553E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4935,40 +4935,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.3666666746960497</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.9701088352034226</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.970108835052349</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.3666666746855632</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.9701088351965897</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.9701088350572</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.404431368424158E-08</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946502369</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>100.8933946519552</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>2.218506696397917E-08</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946499992</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>100.8933946515847</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5012,40 +5012,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.859251606507817E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.464951534858115E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.464809644973741E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-9.859260290637294E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.464899895953712E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.464674268327199E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3.474178307957269E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.280753439781236E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-1.280752660483413E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>6.947147370829952E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-1.280750923799976E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.280755265814833E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5066,40 +5066,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.3666666746960499</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.9701088352034227</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.9701088350523488</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.3666666746855632</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.9701088351965897</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.9701088350572</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.40443165845952E-08</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946502369</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>100.8933946519552</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>2.218506696397917E-08</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946499992</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>100.8933946515847</v>
       </c>
     </row>
   </sheetData>
@@ -5287,40 +5287,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.957777218496262E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.394863288139825E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-7.394428934075304E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.957772876544337E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.394906243196779E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>7.394474060235098E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>3.472907240483153E-15</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-3.842264831800261E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3.842257981546222E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.145256943670649E-18</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3.842262835292974E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-3.842257113033096E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5341,40 +5341,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.3666666746541032</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.9701088351760908</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.9701088350717534</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.3666666746855632</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.9701088351965897</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.9701088350572</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.660736379174379E-08</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946492861</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>100.8933946504732</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2.218506696397917E-08</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946499992</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>100.8933946515847</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5418,40 +5418,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.859251606507815E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.464797085990904E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.464899896024443E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-9.859225552991647E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.464745447086499E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.464764519377899E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>3.474178307907359E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.280770451203405E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-1.280750923601133E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-3.817516420317854E-19</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-1.280767935222145E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1.280753528932553E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5472,40 +5472,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.3666666746960497</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.9701088352034226</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.970108835052349</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.3666666746855632</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.9701088351965897</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.9701088350572</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.404431368424158E-08</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946502369</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>100.8933946519552</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>2.218506696397917E-08</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946499992</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>100.8933946515847</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5549,40 +5549,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.859251606507817E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.464951534858115E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.464809644973741E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-9.859260290637294E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.464899895953712E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.464674268327199E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3.474178307957269E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.280753439781236E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-1.280752660483413E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>6.947147370829952E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-1.280750923799976E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.280755265814833E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5603,40 +5603,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.3666666746960499</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.9701088352034227</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.9701088350523488</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.3666666746855632</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.9701088351965897</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.9701088350572</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.40443165845952E-08</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946502369</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>100.8933946519552</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>2.218506696397917E-08</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946499992</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>100.8933946515847</v>
       </c>
     </row>
   </sheetData>
@@ -5824,40 +5824,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-3.138989571065376E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.398947374204843E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.705641432029335E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.138989683747744E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.39895232950104E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.705636569235095E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.418379567607361E-09</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-2.221746004802213E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2.93092612231127E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.418375106544729E-09</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>2.22174668159153E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-2.93091582154553E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5878,40 +5878,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.6194744497695669</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.94433477094434</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>1.055985897694158</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.6194744497791974</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.9443347709605284</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>1.055985897682506</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-10.90775017850359</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138042154</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>106.7392371168772</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-10.90775017560384</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138043744</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>106.7392371175033</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5955,40 +5955,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.046330967625984E-09</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.663040471385772E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.685583091032731E-11</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.046329744500203E-09</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-4.663047674863931E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.685008632403102E-11</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-4.727874263323227E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>7.405891469995237E-10</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-9.769732971243827E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>4.727976500826673E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-7.405912644531658E-10</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>9.769802483718651E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6009,40 +6009,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.6194744497824074</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.9443347709659246</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>1.055985897678622</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.6194744497791974</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.9443347709605284</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>1.055985897682506</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-10.90775017463725</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138044274</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>106.7392371177121</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-10.90775017560384</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138043744</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>106.7392371175033</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6086,40 +6086,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.046336730435309E-09</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.663110762660168E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.686206180284361E-11</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1.046329744500203E-09</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-4.663103559115017E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.685966670440149E-11</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-4.727885368829224E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>7.40582030679976E-10</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-9.769766466122368E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4.727976500826673E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-7.405799132187328E-10</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>9.769773669672028E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6140,40 +6140,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.6194744497824075</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.9443347709659244</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>1.055985897678622</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.6194744497791974</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.9443347709605284</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>1.055985897682506</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-10.90775017463725</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138044274</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>106.7392371177121</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-10.90775017560384</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138043744</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>106.7392371175033</v>
       </c>
     </row>
   </sheetData>
@@ -6586,40 +6586,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-3.138989571065376E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.398947374204843E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.705641432029335E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.138989683747744E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.39895232950104E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.705636569235095E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.418379567607361E-09</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-2.221746004802213E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2.93092612231127E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.418375106544729E-09</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>2.22174668159153E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-2.93091582154553E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6640,40 +6640,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.6194744497695669</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.94433477094434</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>1.055985897694158</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.6194744497791974</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.9443347709605284</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>1.055985897682506</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-10.90775017850359</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138042154</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>106.7392371168772</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-10.90775017560384</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138043744</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>106.7392371175033</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6717,40 +6717,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.046330967625984E-09</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.663040471385772E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.685583091032731E-11</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.046329744500203E-09</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-4.663047674863931E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.685008632403102E-11</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-4.727874263323227E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>7.405891469995237E-10</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-9.769732971243827E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>4.727976500826673E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-7.405912644531658E-10</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>9.769802483718651E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6771,40 +6771,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.6194744497824074</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.9443347709659246</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>1.055985897678622</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.6194744497791974</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.9443347709605284</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>1.055985897682506</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-10.90775017463725</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138044274</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>106.7392371177121</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-10.90775017560384</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138043744</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>106.7392371175033</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6848,40 +6848,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.046336730435309E-09</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.663110762660168E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.686206180284361E-11</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1.046329744500203E-09</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-4.663103559115017E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.685966670440149E-11</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-4.727885368829224E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>7.40582030679976E-10</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-9.769766466122368E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4.727976500826673E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-7.405799132187328E-10</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>9.769773669672028E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6902,40 +6902,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.6194744497824075</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.9443347709659244</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>1.055985897678622</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.6194744497791974</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.9443347709605284</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>1.055985897682506</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-10.90775017463725</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138044274</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>106.7392371177121</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-10.90775017560384</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-108.7881138043744</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>106.7392371175033</v>
       </c>
     </row>
   </sheetData>
@@ -7123,40 +7123,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.44443635701477E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-6.110897831461198E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-6.111193237990376E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.44443319944974E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6.110990134676878E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6.111139599110416E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-1.22374801038222E-14</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-3.175437239041385E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3.175402837521238E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.105348017356923E-14</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3.175435462744038E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-3.175408124020037E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7177,40 +7177,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.3333333333307885</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037084047</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036612535</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.3333333333857004</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037295261</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036505097</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>8.32586588772342E-09</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946487974</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>100.8933946493879</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.390351011464245E-08</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946503498</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7254,40 +7254,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.148105402000377E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.037058491921237E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.03707230803017E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.148136981230097E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.037019829487114E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.037077029681729E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.973953986312509E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.058464535851911E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-1.058471714801036E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1.57918158183804E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-1.05846102564385E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1.058463115420887E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7308,40 +7308,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.3333333334040045</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037365664</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036469284</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.3333333333857004</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037295261</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036505097</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.576276921262934E-08</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946508672</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>100.893394651989</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.390351011464245E-08</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946503498</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7385,40 +7385,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.148105402000375E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.037041153475126E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.037015494987622E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.148136981230097E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.036953572917733E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.037061239843155E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3.949701287988613E-16</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.058477632305033E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-1.05846429965217E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-1.57918158183804E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-1.058470809268503E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.058454910780092E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7439,40 +7439,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.3333333334040043</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037365665</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036469284</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.3333333333857004</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037295261</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036505097</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.576277383856345E-08</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946508672</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>100.893394651989</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.390351011464245E-08</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946503498</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
   </sheetData>
@@ -7660,40 +7660,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.44443635701477E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-6.110897831461198E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-6.111193237990376E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.44443319944974E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6.110990134676878E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6.111139599110416E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-1.22374801038222E-14</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-3.175437239041385E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3.175402837521238E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.105348017356923E-14</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3.175435462744038E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-3.175408124020037E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7714,40 +7714,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.3333333333307885</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037084047</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036612535</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.3333333333857004</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037295261</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036505097</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>8.32586588772342E-09</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946487974</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>100.8933946493879</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.390351011464245E-08</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946503498</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7791,40 +7791,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.148105402000377E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.037058491921237E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.03707230803017E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.148136981230097E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.037019829487114E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.037077029681729E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.973953986312509E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.058464535851911E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-1.058471714801036E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1.57918158183804E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-1.05846102564385E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1.058463115420887E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7845,40 +7845,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.3333333334040045</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037365664</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036469284</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.3333333333857004</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037295261</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036505097</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.576276921262934E-08</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946508672</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>100.893394651989</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.390351011464245E-08</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946503498</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7922,40 +7922,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.148105402000375E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.037041153475126E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.037015494987622E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.148136981230097E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.036953572917733E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.037061239843155E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3.949701287988613E-16</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.058477632305033E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-1.05846429965217E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-1.57918158183804E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-1.058470809268503E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.058454910780092E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7976,40 +7976,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.3333333334040043</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037365665</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036469284</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.3333333333857004</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.8819171037295261</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.8819171036505097</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.576277383856345E-08</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946508672</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>100.893394651989</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.390351011464245E-08</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-100.8933946503498</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
   </sheetData>
@@ -8197,40 +8197,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.624746520158812E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.140186738833276E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.721719487221299E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.624744267341482E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.140194108025417E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.721705835358202E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.117768186845907E-09</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-1.947077875270436E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2.505932426785048E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.117769717718041E-09</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.947080810346072E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-2.505939887254845E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8251,40 +8251,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.5421614591498644</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463154512</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906660803</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.5421614591769927</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463354531</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906558159</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-10.80277169402217</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396155969</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>106.1949204558221</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-10.80277169012676</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396163396</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>106.1949204570495</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8328,40 +8328,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.749130227698283E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.800676441946043E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.738920193139122E-11</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.749150350947823E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-3.800641366922666E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.738948141450839E-11</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-3.725932791245282E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>6.490184971225395E-10</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-8.353112293613263E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>3.725930094832586E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-6.490143007343599E-10</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>8.353040841992452E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8382,40 +8382,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.5421614591860354</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463421202</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906523946</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.5421614591769927</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463354531</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906558159</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-10.80277168882826</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396165872</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>106.1949204574586</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-10.80277169012676</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396163396</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>106.1949204570495</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8459,40 +8459,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.749130227698284E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3.800695750164689E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.739263476969537E-11</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.749147944181141E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-3.800653980320378E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.739291425281251E-11</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-3.725932791245281E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>6.490178664526537E-10</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-8.353149416885066E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3.725942708230297E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-6.490181623780892E-10</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>8.353077965264257E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8513,40 +8513,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.5421614591860354</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463421202</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906523946</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.5421614591769927</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463354531</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906558159</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-10.80277168882826</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396165872</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>106.1949204574586</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-10.80277169012676</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396163396</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>106.1949204570495</v>
       </c>
     </row>
   </sheetData>
@@ -8734,40 +8734,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.624746520158812E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.140186738833276E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.721719487221299E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.624744267341482E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.140194108025417E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.721705835358202E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.117768186845907E-09</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-1.947077875270436E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2.505932426785048E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.117769717718041E-09</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.947080810346072E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-2.505939887254845E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8788,40 +8788,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.5421614591498644</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463154512</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906660803</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.5421614591769927</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463354531</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906558159</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-10.80277169402217</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396155969</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>106.1949204558221</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-10.80277169012676</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396163396</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>106.1949204570495</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8865,40 +8865,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.749130227698283E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.800676441946043E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.738920193139122E-11</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.749150350947823E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-3.800641366922666E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.738948141450839E-11</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-3.725932791245282E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>6.490184971225395E-10</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-8.353112293613263E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>3.725930094832586E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-6.490143007343599E-10</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>8.353040841992452E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8919,40 +8919,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.5421614591860354</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463421202</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906523946</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.5421614591769927</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463354531</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906558159</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-10.80277168882826</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396165872</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>106.1949204574586</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-10.80277169012676</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396163396</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>106.1949204570495</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8996,40 +8996,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.749130227698284E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3.800695750164689E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.739263476969537E-11</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.749147944181141E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-3.800653980320378E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.739291425281251E-11</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-3.725932791245281E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>6.490178664526537E-10</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-8.353149416885066E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3.725942708230297E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-6.490181623780892E-10</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>8.353077965264257E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9050,40 +9050,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.5421614591860354</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463421202</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906523946</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.5421614591769927</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.8576025463354531</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.9547184906558159</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-10.80277168882826</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396165872</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>106.1949204574586</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-10.80277169012676</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-108.0887396163396</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>106.1949204570495</v>
       </c>
     </row>
   </sheetData>
@@ -9271,40 +9271,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.957768099406259E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.394376822986063E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-7.394428935941447E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.957764625705142E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.394463671541137E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>7.394394202736913E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-7.670238907962584E-20</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.842261503498325E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.842261507934754E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.389520693098957E-14</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.842259766112151E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.842268455967775E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9325,40 +9325,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.7333333491946454</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.3666666743875486</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.3666666748072846</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.7333333492103754</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.3666666743490445</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.3666666748615188</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.485824116405513E-09</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999988626</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>-179.9999999981737</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2.880250577172481E-09</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999910821</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999968201</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9402,40 +9402,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.859308052809261E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.46472280101132E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.464879122578902E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-9.85923857744755E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.46463595640391E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.46491385973109E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>6.947586683309258E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.280749202589413E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.280749204516118E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-4.956225021197547E-20</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.280750939527681E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.280756151989258E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9456,40 +9456,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.7333333492156187</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.3666666743362098</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.3666666748795968</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.7333333492103754</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.3666666743490445</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.3666666748615188</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>3.345062726152094E-09</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999884887</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999951563</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>2.880250577172481E-09</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999910821</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999968201</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9533,40 +9533,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.859273315163654E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.464792276302492E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.464879122578911E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-9.859238577447552E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.46463595640391E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.46491385973109E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>5.75608514695072E-20</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.280749202589411E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.280756152045245E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>6.947479560043883E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.280750939527681E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.280756151989258E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9587,40 +9587,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.7333333492156187</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.3666666743362098</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.3666666748795967</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.7333333492103754</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.3666666743490445</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.3666666748615188</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>3.345067885794064E-09</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999884887</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999951563</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>2.880250577172481E-09</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999910821</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999968201</v>
       </c>
     </row>
   </sheetData>
@@ -9808,40 +9808,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.957768099406259E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.394376822986063E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-7.394428935941447E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.957764625705142E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.394463671541137E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>7.394394202736913E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-7.670238907962584E-20</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.842261503498325E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.842261507934754E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.389520693098957E-14</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.842259766112151E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.842268455967775E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9862,40 +9862,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.7333333491946454</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.3666666743875486</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.3666666748072846</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.7333333492103754</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.3666666743490445</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.3666666748615188</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.485824116405513E-09</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999988626</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>-179.9999999981737</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2.880250577172481E-09</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999910821</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999968201</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9939,40 +9939,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.859308052809261E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.46472280101132E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.464879122578902E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-9.85923857744755E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.46463595640391E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.46491385973109E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>6.947586683309258E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.280749202589413E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.280749204516118E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-4.956225021197547E-20</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.280750939527681E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.280756151989258E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9993,40 +9993,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.7333333492156187</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.3666666743362098</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.3666666748795968</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.7333333492103754</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.3666666743490445</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.3666666748615188</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>3.345062726152094E-09</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999884887</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999951563</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>2.880250577172481E-09</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999910821</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999968201</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10070,40 +10070,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.859273315163654E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.464792276302492E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.464879122578911E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-9.859238577447552E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.46463595640391E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.46491385973109E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>5.75608514695072E-20</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.280749202589411E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.280756152045245E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>6.947479560043883E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.280750939527681E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.280756151989258E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10124,40 +10124,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.7333333492156187</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.3666666743362098</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.3666666748795967</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.7333333492103754</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.3666666743490445</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.3666666748615188</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>3.345067885794064E-09</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999884887</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999951563</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>2.880250577172481E-09</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999910821</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999968201</v>
       </c>
     </row>
   </sheetData>
@@ -10345,40 +10345,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.27218505634925E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.904119186405179E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-3.132506390323534E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.272189657680448E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.904126023248858E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.132505088845451E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>7.091983786895962E-10</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.349302320158808E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-8.033263608136594E-10</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-7.091905642415387E-10</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.34930236833731E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>8.033279866500967E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10399,40 +10399,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.8561498316502644</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.64545978590389</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.4396365303143508</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.8561498316569495</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.6454597858855782</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.4396365303502248</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-3.925473815880304</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-153.8407182488165</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>128.6858355510096</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-153.840718245325</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>128.68583555419</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10476,40 +10476,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.573957591635481E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>6.347136492360082E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.044167057244516E-09</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-7.573952038848987E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-6.34706812579902E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-1.044170962288377E-09</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-2.363886701459921E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.449772960898441E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2.677865110012903E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>2.363967622012963E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.449772912507117E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-2.67781634183654E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10530,40 +10530,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.8561498316591778</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.6454597858794742</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.4396365303621828</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.8561498316569495</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.6454597858855782</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.4396365303502248</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-3.925473814544141</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-153.8407182441612</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>128.68583555525</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-153.840718245325</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>128.68583555419</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10607,40 +10607,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.57399249914E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>6.347136492360084E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.044160554856471E-09</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-7.573984169977007E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-6.34706812579902E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-1.044164459900332E-09</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-2.363970398351457E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.449772960898441E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.677813042448802E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2.364091779162018E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.449772912507117E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-2.677764274272439E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10661,40 +10661,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.8561498316591777</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.6454597858794743</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.4396365303621828</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.8561498316569495</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.6454597858855782</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.4396365303502248</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-3.925473814544139</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-153.8407182441612</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>128.68583555525</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-153.840718245325</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>128.68583555419</v>
       </c>
     </row>
   </sheetData>
@@ -10882,40 +10882,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.27218505634925E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.904119186405179E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-3.132506390323534E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.272189657680448E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.904126023248858E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.132505088845451E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>7.091983786895962E-10</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.349302320158808E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-8.033263608136594E-10</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-7.091905642415387E-10</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.34930236833731E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>8.033279866500967E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10936,40 +10936,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.8561498316502644</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.64545978590389</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.4396365303143508</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.8561498316569495</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.6454597858855782</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.4396365303502248</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-3.925473815880304</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-153.8407182488165</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>128.6858355510096</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-153.840718245325</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>128.68583555419</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11013,40 +11013,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.573957591635481E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>6.347136492360082E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.044167057244516E-09</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-7.573952038848987E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-6.34706812579902E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-1.044170962288377E-09</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-2.363886701459921E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.449772960898441E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2.677865110012903E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>2.363967622012963E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.449772912507117E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-2.67781634183654E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11067,40 +11067,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.8561498316591778</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.6454597858794742</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.4396365303621828</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.8561498316569495</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.6454597858855782</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.4396365303502248</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-3.925473814544141</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-153.8407182441612</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>128.68583555525</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-153.840718245325</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>128.68583555419</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11144,40 +11144,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.57399249914E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>6.347136492360084E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.044160554856471E-09</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-7.573984169977007E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-6.34706812579902E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-1.044164459900332E-09</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-2.363970398351457E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.449772960898441E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.677813042448802E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2.364091779162018E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.449772912507117E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-2.677764274272439E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11198,40 +11198,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.8561498316591777</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.6454597858794743</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.4396365303621828</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.8561498316569495</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.6454597858855782</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.4396365303502248</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-3.925473814544139</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-153.8407182441612</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>128.68583555525</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-153.840718245325</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>128.68583555419</v>
       </c>
     </row>
   </sheetData>
@@ -11419,40 +11419,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.444453331098378E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-6.111133325742228E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-6.111125436929004E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.444447015263621E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6.111149122627695E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6.111157023653161E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-1.26318696634307E-14</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.175393378733886E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.175399697806454E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>6.315993726805755E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.175399694252877E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.175409172126038E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11473,40 +11473,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.6666666666635244</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.3333333331670094</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.3333333334964602</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.6666666666909806</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.333333333138584</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.3333333335523417</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-2.799723049705339E-11</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999981581</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>179.9999999980388</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.366446573832815E-09</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999845026</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999871721</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11550,40 +11550,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.148125137980116E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.037023391927988E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.036999709205474E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.148125137868257E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.036976021629285E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.036968128745298E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>6.315961471694072E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.058474985951922E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.058481303303246E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-9.473922576270455E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.058471828030482E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.058478145289259E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11604,40 +11604,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.6666666667001326</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.3333333331291086</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.3333333335709688</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.6666666666909806</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.333333333138584</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.3333333335523417</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.831242756563704E-09</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999799507</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999835498</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.366446573832815E-09</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999845026</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999871721</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11681,40 +11681,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.14806197862582E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.037023391927996E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.037031288882613E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.148156717545404E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.037007601306419E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.036999708422449E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>6.315961471266787E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.058474985951922E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.058474987367813E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-9.473922576345769E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.058474985998194E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.058471829353825E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11735,40 +11735,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.6666666667001324</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.3333333331291088</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.3333333335709691</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.6666666666909806</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.333333333138584</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.3333333335523417</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.831226905638226E-09</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999799507</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999835499</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.366446573832815E-09</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999845026</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999871721</v>
       </c>
     </row>
   </sheetData>
@@ -12181,40 +12181,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.444453331098378E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-6.111133325742228E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-6.111125436929004E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.444447015263621E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6.111149122627695E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6.111157023653161E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-1.26318696634307E-14</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.175393378733886E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.175399697806454E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>6.315993726805755E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.175399694252877E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.175409172126038E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12235,40 +12235,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.6666666666635244</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.3333333331670094</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.3333333334964602</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.6666666666909806</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.333333333138584</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.3333333335523417</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-2.799723049705339E-11</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999981581</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>179.9999999980388</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.366446573832815E-09</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999845026</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999871721</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12312,40 +12312,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.148125137980116E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.037023391927988E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.036999709205474E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.148125137868257E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.036976021629285E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.036968128745298E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>6.315961471694072E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.058474985951922E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.058481303303246E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-9.473922576270455E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.058471828030482E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.058478145289259E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12366,40 +12366,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.6666666667001326</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.3333333331291086</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.3333333335709688</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.6666666666909806</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.333333333138584</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.3333333335523417</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.831242756563704E-09</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999799507</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999835498</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.366446573832815E-09</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999845026</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999871721</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12443,40 +12443,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.14806197862582E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.037023391927996E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.037031288882613E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.148156717545404E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.037007601306419E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.036999708422449E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>6.315961471266787E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.058474985951922E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.058474987367813E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-9.473922576345769E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.058474985998194E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.058471829353825E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12497,40 +12497,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.6666666667001324</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.3333333331291088</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.3333333335709691</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.6666666666909806</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.333333333138584</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.3333333335523417</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.831226905638226E-09</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999799507</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999835499</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.366446573832815E-09</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999845026</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999871721</v>
       </c>
     </row>
   </sheetData>
@@ -12718,40 +12718,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-1.941678711819341E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.538344756927241E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-2.506367632607819E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.941678591532841E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.538342775260886E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.506371201805006E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5.588796192993003E-10</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.623708060938495E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-8.292755323252073E-10</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-5.588814341764476E-10</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.623697194349345E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>8.292714938346499E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12772,40 +12772,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.7679592756099384</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792825289</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.3792589156706677</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.7679592756256506</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792745439</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.3792589157298286</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-3.793471525605712</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-155.6266320097202</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>131.4656840130418</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-3.793471524364417</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-155.62663200364</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>131.465684014986</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12849,40 +12849,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.472202678291119E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>5.127860843994416E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.354679416042569E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-6.472205085000209E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-5.127880663883063E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-8.354637779238583E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-1.862915953531867E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.207910452378446E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2.764350387579541E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.86287965541033E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.20792131877701E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-2.764397505565929E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12903,40 +12903,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.7679592756308878</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792718822</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.379258915749549</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.7679592756256506</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792745439</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.3792589157298286</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-3.793471523950661</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-155.6266320016133</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>131.4656840156341</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-3.793471524364417</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-155.62663200364</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>131.465684014986</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12980,40 +12980,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.472167583518888E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>5.12788295516084E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.354613670528462E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-6.472168786844639E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-5.127834150675593E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-8.354583929839007E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-1.8628953976874E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.207915332786656E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.76431626547134E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.862877248643646E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.207917543927122E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-2.764349921107835E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13034,40 +13034,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.7679592756308878</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792718823</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.3792589157495488</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.7679592756256506</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792745439</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.3792589157298286</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-3.793471523950675</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-155.6266320016132</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>131.4656840156341</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-3.793471524364417</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-155.62663200364</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>131.465684014986</v>
       </c>
     </row>
   </sheetData>
@@ -13255,40 +13255,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-1.941678711819341E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.538344756927241E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-2.506367632607819E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.941678591532841E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.538342775260886E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.506371201805006E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5.588796192993003E-10</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.623708060938495E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-8.292755323252073E-10</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-5.588814341764476E-10</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.623697194349345E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>8.292714938346499E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13309,40 +13309,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.7679592756099384</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792825289</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.3792589156706677</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.7679592756256506</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792745439</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.3792589157298286</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-3.793471525605712</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-155.6266320097202</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>131.4656840130418</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-3.793471524364417</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-155.62663200364</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>131.465684014986</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13386,40 +13386,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.472202678291119E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>5.127860843994416E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.354679416042569E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-6.472205085000209E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-5.127880663883063E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-8.354637779238583E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-1.862915953531867E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.207910452378446E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2.764350387579541E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.86287965541033E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.20792131877701E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-2.764397505565929E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13440,40 +13440,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.7679592756308878</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792718822</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.379258915749549</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.7679592756256506</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792745439</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.3792589157298286</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-3.793471523950661</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-155.6266320016133</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>131.4656840156341</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-3.793471524364417</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-155.62663200364</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>131.465684014986</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13517,40 +13517,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.472167583518888E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>5.12788295516084E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.354613670528462E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-6.472168786844639E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-5.127834150675593E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-8.354583929839007E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-1.8628953976874E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.207915332786656E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.76431626547134E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.862877248643646E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.207917543927122E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-2.764349921107835E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13571,40 +13571,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.7679592756308878</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792718823</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.3792589157495488</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.7679592756256506</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.5655462792745439</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.3792589157298286</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-3.793471523950675</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-155.6266320016132</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>131.4656840156341</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-3.793471524364417</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-155.62663200364</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>131.465684014986</v>
       </c>
     </row>
   </sheetData>
@@ -14917,40 +14917,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.042129368337673E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.605319086867241E-14</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.04213387394993E-14</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-2.084258736675258E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-1.302614552294603E-14</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>4.733019434945075E-19</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-5.210646841687631E-15</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>5.763374019309585E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-5.763397471383332E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-5.210646841689396E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-5.763387045440786E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>5.763387050575543E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -14971,40 +14971,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.5500000117057789</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.5500000121030503</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.5500000116594096</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.5500000121494194</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>3.230064669423452E-12</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.999999999562</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>179.9999999995448</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>3.235878885818676E-12</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999953046</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999952875</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15048,40 +15048,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.042129368337703E-14</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-5.210442063358339E-15</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.084279272508777E-14</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-3.126388105012931E-14</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.823710674596206E-14</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-3.126403883137344E-14</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-1.042129368337585E-14</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.921142041710038E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.921118595618812E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1.765682105010281E-27</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.92112901514693E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.921129016858512E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15102,40 +15102,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.5500000116439532</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.5500000121648758</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.5500000116594096</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.5500000121494194</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>3.239489879446785E-12</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999938855</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999938684</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>3.235878885818676E-12</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999953046</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999952875</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15179,40 +15179,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-5.210646841687925E-15</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-5.21044206485695E-15</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.042149903716305E-14</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1.042129368337644E-14</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>7.81581306722702E-15</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-1.042145145618997E-14</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-5.210646841688514E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.921131620416361E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.921118595618814E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-5.885607016700939E-28</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.921129015146929E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.921139438152201E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15233,40 +15233,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.5500000116439533</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.5500000121648758</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>1.100000023808734</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.5500000116594096</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.5500000121494194</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>3.239347647951141E-12</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999938855</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999938684</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>3.235878885818676E-12</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999953046</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999952875</v>
       </c>
     </row>
   </sheetData>
